--- a/examples/sqs/artifact/script/Prep.xlsx
+++ b/examples/sqs/artifact/script/Prep.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1736,6 +1736,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1746,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2325,8 +2328,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="142">
+  <fills count="169">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3127,8 +3231,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="159">
+  <borders count="191">
     <border>
       <left/>
       <right/>
@@ -4752,6 +5009,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4759,7 +5342,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5080,52 +5663,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="120" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="120" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="123" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="123" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="132" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="132" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="123" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="123" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="144" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="147" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="150" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="153" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="159" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="150" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5450,7 +6081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5535,24 +6166,21 @@
         <v>393</v>
       </c>
       <c r="Y1" t="s">
-        <v>551</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AD1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5630,24 +6258,21 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
-        <v>553</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
       <c r="AD2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5718,22 +6343,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AC3" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5801,22 +6426,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
+      <c r="Y4" t="s">
+        <v>350</v>
+      </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="AD4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5875,22 +6500,22 @@
       <c r="W5" t="s">
         <v>355</v>
       </c>
+      <c r="Y5" t="s">
+        <v>351</v>
+      </c>
       <c r="Z5" t="s">
-        <v>351</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="AD5" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5943,22 +6568,22 @@
       <c r="W6" t="s">
         <v>357</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>441</v>
       </c>
       <c r="AA6" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6005,22 +6630,22 @@
       <c r="W7" t="s">
         <v>356</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="AA7" t="s">
-        <v>442</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD7" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE7" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6061,22 +6686,22 @@
       <c r="W8" t="s">
         <v>358</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD8" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE8" t="s">
         <v>546</v>
       </c>
     </row>
@@ -6117,13 +6742,13 @@
       <c r="W9" t="s">
         <v>359</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6158,13 +6783,13 @@
       <c r="T10" t="s">
         <v>402</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6196,13 +6821,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6234,13 +6859,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6269,13 +6894,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6304,13 +6929,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6336,13 +6961,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6360,7 +6985,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>556</v>
       </c>
       <c r="Q16" t="s">
         <v>488</v>
@@ -6368,13 +6993,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6392,15 +7017,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>489</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>463</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6417,10 +7042,13 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6437,10 +7065,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6457,10 +7085,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6477,10 +7105,10 @@
       <c r="K21" t="s">
         <v>376</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6497,10 +7125,10 @@
       <c r="K22" t="s">
         <v>466</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>490</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6517,10 +7145,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>548</v>
       </c>
     </row>
@@ -6537,16 +7165,16 @@
       <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -6557,16 +7185,16 @@
       <c r="K25" t="s">
         <v>537</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>445</v>
@@ -6577,16 +7205,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -6597,16 +7225,16 @@
       <c r="K27" t="s">
         <v>430</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -6617,13 +7245,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s">
         <v>464</v>
@@ -6634,13 +7262,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>465</v>
@@ -6648,21 +7276,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>412</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6673,7 +7298,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6684,7 +7309,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6695,7 +7320,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6706,7 +7331,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6717,7 +7342,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6728,7 +7353,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6739,7 +7364,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6750,7 +7375,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6758,7 +7383,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6766,7 +7391,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6774,7 +7399,7 @@
       <c r="G42" t="s">
         <v>554</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6782,7 +7407,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6790,7 +7415,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6798,7 +7423,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6806,7 +7431,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6814,7 +7439,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6822,7 +7447,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6830,7 +7455,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6838,7 +7463,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>544</v>
       </c>
     </row>
@@ -6846,7 +7471,7 @@
       <c r="G51" t="s">
         <v>364</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6854,7 +7479,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6862,7 +7487,7 @@
       <c r="G53" t="s">
         <v>352</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6870,7 +7495,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6878,7 +7503,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6886,7 +7511,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6894,7 +7519,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6902,7 +7527,7 @@
       <c r="G58" t="s">
         <v>555</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6910,7 +7535,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6918,7 +7543,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6926,7 +7551,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6934,7 +7559,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6942,7 +7567,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6950,7 +7575,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6958,7 +7583,7 @@
       <c r="G65" t="s">
         <v>365</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6966,7 +7591,7 @@
       <c r="G66" t="s">
         <v>366</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6974,7 +7599,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6982,7 +7607,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6990,7 +7615,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6998,7 +7623,7 @@
       <c r="G70" t="s">
         <v>538</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7006,7 +7631,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7014,7 +7639,7 @@
       <c r="G72" t="s">
         <v>406</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7022,7 +7647,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7030,7 +7655,7 @@
       <c r="G74" t="s">
         <v>407</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7038,7 +7663,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7046,7 +7671,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7054,7 +7679,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7062,7 +7687,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7070,7 +7695,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7078,7 +7703,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7086,7 +7711,7 @@
       <c r="G81" t="s">
         <v>425</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7094,7 +7719,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7102,7 +7727,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7110,7 +7735,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7118,7 +7743,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7126,7 +7751,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7134,7 +7759,7 @@
       <c r="G87" t="s">
         <v>539</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7142,7 +7767,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7150,7 +7775,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7158,7 +7783,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7166,7 +7791,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7174,7 +7799,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7182,7 +7807,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7190,7 +7815,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7198,7 +7823,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7206,7 +7831,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7214,167 +7839,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/sqs/artifact/script/Prep.xlsx
+++ b/examples/sqs/artifact/script/Prep.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6669" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1739,6 +1740,42 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1783,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2429,8 +2466,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="169">
+  <fills count="304">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3384,8 +3926,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="191">
+  <borders count="351">
     <border>
       <left/>
       <right/>
@@ -5335,6 +6642,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5342,7 +8279,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5711,52 +8648,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="144" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="144" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="147" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="147" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="150" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="150" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="153" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="153" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="159" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="159" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="150" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="150" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="171" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="174" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="177" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="180" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="186" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="177" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="189" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="189" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="198" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="201" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="204" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="207" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="213" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="204" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="216" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="216" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="225" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="228" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="231" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="234" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="240" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="231" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="243" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="243" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="252" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="255" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="258" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="261" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="267" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="258" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="270" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="270" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="279" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="282" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="285" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="288" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="294" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="285" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="297" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="297" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6081,7 +9258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6106,81 +9283,84 @@
         <v>472</v>
       </c>
       <c r="E1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>503</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>392</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>408</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>353</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>393</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6198,81 +9378,84 @@
         <v>474</v>
       </c>
       <c r="E2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>457</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>380</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>507</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>484</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>394</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>415</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>416</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>377</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>403</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6289,76 +9472,76 @@
       <c r="D3" t="s">
         <v>523</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>454</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>361</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>479</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>508</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>395</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>417</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>378</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6372,82 +9555,82 @@
       <c r="D4" t="s">
         <v>475</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>383</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>447</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>480</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>509</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>396</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>418</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>354</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s">
         <v>371</v>
@@ -6455,73 +9638,73 @@
       <c r="D5" t="s">
         <v>476</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>455</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>429</v>
       </c>
-      <c r="G5" t="s">
-        <v>332</v>
-      </c>
       <c r="H5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>540</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>458</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>397</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>419</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
-        <v>351</v>
-      </c>
       <c r="Z5" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>372</v>
@@ -6529,1477 +9712,1513 @@
       <c r="D6" t="s">
         <v>477</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
-        <v>384</v>
-      </c>
       <c r="H6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" t="s">
         <v>444</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>511</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>387</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>398</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
-        <v>362</v>
-      </c>
       <c r="H7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>541</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>512</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>414</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>399</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
-        <v>363</v>
-      </c>
       <c r="H8" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>481</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>513</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>400</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>302</v>
-      </c>
       <c r="H9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>514</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
-        <v>348</v>
-      </c>
       <c r="H10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" t="s">
         <v>448</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>515</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
-        <v>270</v>
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>566</v>
       </c>
       <c r="H11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>482</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>467</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>516</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
-        <v>259</v>
-      </c>
       <c r="H12" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>386</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>542</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>517</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
-        <v>312</v>
-      </c>
       <c r="H13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>432</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>503</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
-        <v>260</v>
-      </c>
       <c r="H14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>468</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" t="s">
         <v>483</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>487</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
         <v>381</v>
       </c>
-      <c r="G16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>556</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>488</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>382</v>
       </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="H17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>489</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>463</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>411</v>
       </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s">
         <v>459</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
-        <v>294</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="H21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" t="s">
         <v>376</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" t="s">
         <v>552</v>
       </c>
-      <c r="G22" t="s">
-        <v>295</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H22" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" t="s">
         <v>466</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>490</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
-        <v>286</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="H23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
-        <v>275</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
+      <c r="L24" t="s">
         <v>388</v>
       </c>
-      <c r="Y24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="Z24" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE24" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="H25" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" t="s">
         <v>537</v>
       </c>
-      <c r="Y25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="Z25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE25" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>445</v>
       </c>
-      <c r="G26" t="s">
-        <v>278</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="Z26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
-        <v>262</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="H27" t="s">
+        <v>278</v>
+      </c>
+      <c r="L27" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="Z27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
-        <v>279</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
-        <v>323</v>
+      <c r="Z28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>464</v>
       </c>
-      <c r="G29" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="H29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
-        <v>111</v>
+      <c r="Z29" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>412</v>
-      </c>
-      <c r="G31" t="s">
+    <row r="32">
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s">
+    <row r="33">
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" t="s">
+    <row r="34">
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y34" t="s">
+    <row r="36">
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y35" t="s">
+    <row r="37">
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y36" t="s">
+    <row r="38">
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y37" t="s">
+    <row r="39">
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y38" t="s">
+    <row r="40">
+      <c r="H40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+    <row r="41">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z41" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="H42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z42" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="41">
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y41" t="s">
+    <row r="43">
+      <c r="H43" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42">
-      <c r="G42" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y42" t="s">
+    <row r="44">
+      <c r="H44" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43">
-      <c r="G43" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y43" t="s">
+    <row r="45">
+      <c r="H45" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44">
-      <c r="G44" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y44" t="s">
+    <row r="46">
+      <c r="H46" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45">
-      <c r="G45" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y45" t="s">
+    <row r="47">
+      <c r="H47" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46">
-      <c r="G46" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y46" t="s">
+    <row r="48">
+      <c r="H48" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47">
-      <c r="G47" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y47" t="s">
+    <row r="49">
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z49" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="48">
-      <c r="G48" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y48" t="s">
+    <row r="50">
+      <c r="H50" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49">
-      <c r="G49" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y49" t="s">
+    <row r="51">
+      <c r="H51" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50">
-      <c r="G50" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y50" t="s">
+    <row r="52">
+      <c r="H52" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z52" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="51">
-      <c r="G51" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y51" t="s">
+    <row r="53">
+      <c r="H53" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52">
-      <c r="G52" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y52" t="s">
+    <row r="54">
+      <c r="H54" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53">
-      <c r="G53" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y53" t="s">
+    <row r="55">
+      <c r="H55" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54">
-      <c r="G54" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y54" t="s">
+    <row r="56">
+      <c r="H56" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z56" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55">
-      <c r="G55" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y55" t="s">
+    <row r="57">
+      <c r="H57" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z57" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="56">
-      <c r="G56" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y56" t="s">
+    <row r="58">
+      <c r="H58" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57">
-      <c r="G57" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y57" t="s">
+    <row r="59">
+      <c r="H59" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="58">
-      <c r="G58" t="s">
-        <v>555</v>
-      </c>
-      <c r="Y58" t="s">
+    <row r="60">
+      <c r="H60" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z60" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59">
-      <c r="G59" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y59" t="s">
+    <row r="61">
+      <c r="H61" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60">
-      <c r="G60" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y60" t="s">
+    <row r="62">
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61">
-      <c r="G61" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y61" t="s">
+    <row r="63">
+      <c r="H63" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62">
-      <c r="G62" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y62" t="s">
+    <row r="64">
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63">
-      <c r="G63" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y63" t="s">
+    <row r="65">
+      <c r="H65" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64">
-      <c r="G64" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y64" t="s">
+    <row r="66">
+      <c r="H66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65">
-      <c r="G65" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y65" t="s">
+    <row r="67">
+      <c r="H67" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66">
-      <c r="G66" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y66" t="s">
+    <row r="68">
+      <c r="H68" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="67">
-      <c r="G67" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y67" t="s">
+    <row r="69">
+      <c r="H69" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z69" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="68">
-      <c r="G68" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y68" t="s">
+    <row r="70">
+      <c r="H70" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69">
-      <c r="G69" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y69" t="s">
+    <row r="71">
+      <c r="H71" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z71" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="70">
-      <c r="G70" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y70" t="s">
+    <row r="72">
+      <c r="H72" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z72" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="71">
-      <c r="G71" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y71" t="s">
+    <row r="73">
+      <c r="H73" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72">
-      <c r="G72" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y72" t="s">
+    <row r="74">
+      <c r="H74" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73">
-      <c r="G73" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y73" t="s">
+    <row r="75">
+      <c r="H75" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74">
-      <c r="G74" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y74" t="s">
+    <row r="76">
+      <c r="H76" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75">
-      <c r="G75" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y75" t="s">
+    <row r="77">
+      <c r="H77" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76">
-      <c r="G76" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y76" t="s">
+    <row r="78">
+      <c r="H78" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="77">
-      <c r="G77" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y77" t="s">
+    <row r="79">
+      <c r="H79" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z79" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="78">
-      <c r="G78" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y78" t="s">
+    <row r="80">
+      <c r="H80" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z80" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="79">
-      <c r="G79" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y79" t="s">
+    <row r="81">
+      <c r="H81" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80">
-      <c r="G80" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y80" t="s">
+    <row r="82">
+      <c r="H82" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81">
-      <c r="G81" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y81" t="s">
+    <row r="83">
+      <c r="H83" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82">
-      <c r="G82" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y82" t="s">
+    <row r="84">
+      <c r="H84" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z84" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="83">
-      <c r="G83" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y83" t="s">
+    <row r="85">
+      <c r="H85" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84">
-      <c r="G84" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y84" t="s">
+    <row r="86">
+      <c r="H86" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85">
-      <c r="G85" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y85" t="s">
+    <row r="87">
+      <c r="H87" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86">
-      <c r="G86" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y86" t="s">
+    <row r="88">
+      <c r="H88" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z88" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="87">
-      <c r="G87" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y87" t="s">
+    <row r="89">
+      <c r="H89" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88">
-      <c r="G88" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y88" t="s">
+    <row r="90">
+      <c r="H90" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z90" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89">
-      <c r="G89" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y89" t="s">
+    <row r="91">
+      <c r="H91" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90">
-      <c r="G90" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y90" t="s">
+    <row r="92">
+      <c r="H92" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91">
-      <c r="G91" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y91" t="s">
+    <row r="93">
+      <c r="H93" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92">
-      <c r="G92" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y92" t="s">
+    <row r="96">
+      <c r="H96" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93">
-      <c r="G93" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y93" t="s">
+    <row r="97">
+      <c r="H97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94">
-      <c r="G94" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y94" t="s">
+    <row r="98">
+      <c r="H98" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z98" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="95">
-      <c r="G95" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y95" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="96">
-      <c r="G96" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y96" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="97">
-      <c r="G97" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y97" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/sqs/artifact/script/Prep.xlsx
+++ b/examples/sqs/artifact/script/Prep.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6669" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7794" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1776,6 +1776,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1798,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2971,8 +2986,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="304">
+  <fills count="358">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4691,8 +4908,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="351">
+  <borders count="415">
     <border>
       <left/>
       <right/>
@@ -8272,6 +8795,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8279,7 +9454,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="245">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8888,52 +10063,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="279" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="279" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="282" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="282" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="285" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="285" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="288" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="288" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="294" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="294" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="285" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="285" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="297" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="297" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="297" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="297" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="306" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="309" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="312" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="315" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="321" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="312" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="324" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="324" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="333" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="336" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="339" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="342" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="348" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="339" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="351" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="351" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="357" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9574,7 +10845,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>572</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -9610,7 +10881,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>573</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -9657,7 +10928,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -9728,7 +10999,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -9790,7 +11061,7 @@
         <v>541</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -9849,7 +11120,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -9905,7 +11176,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -9949,7 +11220,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -9990,7 +11261,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -10028,7 +11299,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="N12" t="s">
         <v>542</v>
@@ -10066,7 +11337,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -10101,7 +11372,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -10133,7 +11404,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -10165,7 +11436,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="N16" t="s">
         <v>556</v>
@@ -10197,7 +11468,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -10223,7 +11494,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -10240,13 +11511,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>571</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -10260,13 +11531,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -10280,13 +11551,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -10300,13 +11571,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>552</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>570</v>
       </c>
       <c r="Z22" t="s">
         <v>490</v>
@@ -10320,13 +11591,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>552</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -10340,13 +11611,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>557</v>
@@ -10360,13 +11631,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>537</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -10380,13 +11651,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>537</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -10400,13 +11671,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -10420,13 +11691,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -10437,13 +11708,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -10454,10 +11725,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -10468,7 +11742,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -10479,7 +11753,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -10490,7 +11764,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -10501,7 +11775,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -10512,7 +11786,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -10523,7 +11797,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -10534,7 +11808,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -10545,7 +11819,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -10556,7 +11830,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -10566,6 +11840,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/sqs/artifact/script/Prep.xlsx
+++ b/examples/sqs/artifact/script/Prep.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7794" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8359" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1791,6 +1791,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3188,8 +3197,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="358">
+  <fills count="385">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5214,8 +5324,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="415">
+  <borders count="447">
     <border>
       <left/>
       <right/>
@@ -9447,6 +9710,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9454,7 +10043,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10159,52 +10748,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="333" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="333" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="336" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="336" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="339" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="339" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="342" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="342" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="348" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="348" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="339" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="339" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="351" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="351" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="351" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="351" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="357" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="360" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="363" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="366" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="369" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="375" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="366" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="378" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="378" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10529,7 +11166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10995,6 +11632,9 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>574</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -11511,7 +12151,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>571</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -11531,7 +12171,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -11551,7 +12191,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -11571,7 +12211,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>552</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -11591,7 +12231,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>552</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -11611,7 +12251,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -11631,7 +12271,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -11651,7 +12291,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -11671,7 +12311,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -11691,7 +12331,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -11708,7 +12348,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -11725,7 +12365,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -11742,7 +12382,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -11753,7 +12393,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -11764,7 +12404,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -11775,7 +12415,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -11786,7 +12426,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -11797,7 +12437,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -11808,7 +12448,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -11819,7 +12459,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -11830,7 +12470,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -11840,9 +12480,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -12316,186 +12953,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>494</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>565</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>559</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/sqs/artifact/script/Prep.xlsx
+++ b/examples/sqs/artifact/script/Prep.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8359" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1807,7 +1807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3298,8 +3298,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="385">
+  <fills count="412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5477,8 +5578,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="447">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10036,6 +10290,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10043,7 +10623,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10796,52 +11376,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="360" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="360" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="363" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="363" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="366" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="366" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="369" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="369" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="372" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="375" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="375" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="366" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="366" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="378" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="378" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="378" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="378" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="387" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="390" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="393" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="396" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="399" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="402" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="393" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="405" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="405" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/sqs/artifact/script/Prep.xlsx
+++ b/examples/sqs/artifact/script/Prep.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9489" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1807,7 +1807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3399,8 +3399,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="412">
+  <fills count="439">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5731,8 +5832,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="511">
     <border>
       <left/>
       <right/>
@@ -10616,6 +10870,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10623,7 +11203,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11424,52 +12004,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="387" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="387" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="390" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="390" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="393" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="393" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="396" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="396" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="399" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="402" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="402" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="393" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="393" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="405" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="405" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="405" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="405" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="414" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="417" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="420" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="423" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="429" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="420" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="432" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="432" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
